--- a/makurodatabases/课税ramsey model.xlsx
+++ b/makurodatabases/课税ramsey model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\makurodatabases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52F8CD0-E3B4-49AC-A66A-CB64E2243355}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BAA8DB-7B00-45F1-B900-CDDA227D4360}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{75C5BF76-58DD-4113-95A4-A27E2371E4C1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{75C5BF76-58DD-4113-95A4-A27E2371E4C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -7839,7 +7839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD1629A-FCBD-4B3B-985C-FED7D2429096}">
   <dimension ref="A3:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E38" sqref="E38:I39"/>
     </sheetView>
   </sheetViews>
@@ -8018,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" ref="G22:G37" si="1">$B$6*E22^$B$3-$B$7-$B$5*E22</f>
+        <f t="shared" ref="G22:G36" si="1">$B$6*E22^$B$3-$B$7-$B$5*E22</f>
         <v>-0.1</v>
       </c>
     </row>
@@ -8171,7 +8171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9456A5-FC30-4BBA-A7A6-7B2A15604A85}">
   <dimension ref="A4:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -9135,7 +9135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912F7ABB-EF7F-47FF-BA0F-4730B6A795CC}">
   <dimension ref="A4:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/makurodatabases/课税ramsey model.xlsx
+++ b/makurodatabases/课税ramsey model.xlsx
@@ -8,19 +8,52 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\makurodatabases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BAA8DB-7B00-45F1-B900-CDDA227D4360}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A1528B-A058-43E5-88AD-0D57C091E55B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="2" xr2:uid="{75C5BF76-58DD-4113-95A4-A27E2371E4C1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="3" xr2:uid="{75C5BF76-58DD-4113-95A4-A27E2371E4C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="消费税上升" sheetId="1" r:id="rId2"/>
     <sheet name="资本税上升" sheetId="2" r:id="rId3"/>
+    <sheet name="消费税上升之规划求解法" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">消费税上升之规划求解法!$F$9:$F$38,消费税上升之规划求解法!$G$8:$G$37</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">消费税上升之规划求解法!$L$8:$M$37</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">消费税上升之规划求解法!$L$8</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>α</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -101,6 +134,19 @@
     <t>g_t</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>tauc</t>
+  </si>
+  <si>
+    <t>tauk</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>制约式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -148,12 +194,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -170,7 +222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -182,6 +234,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3174,6 +3232,1073 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>K</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>消费税上升之规划求解法!$F$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="AE2812"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>消费税上升之规划求解法!$E$8:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>消费税上升之规划求解法!$F$8:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.2261447333572111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2235964917227233</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2207746942574289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2174002922930083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.213134847523718</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2075442506373228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2000501462390549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1898616873328363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1758757252609779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1565250445539734</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1295374313209166</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1545181128761162</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1731030510906875</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1868999470560579</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.197126380497312</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.204697710034347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2102985557827735</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2144390909912148</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2174984864514684</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2197579969445143</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2214259310208693</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2226563744423866</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2235631635668498</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2242302750220708</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2247195253115684</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2250762566820681</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2253335161339431</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2255151039616388</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2256377682413679</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2257127449409797</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.225746783745892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFC1-4C9B-9074-FC5B580BEC51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1572678319"/>
+        <c:axId val="1577839343"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1572678319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="43137"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="4F81BD">
+                <a:lumMod val="50000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1577839343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1577839343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.1200000000000001"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1572678319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF">
+        <a:lumMod val="95000"/>
+      </a:sysClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="window" lastClr="FFFFFF">
+          <a:lumMod val="85000"/>
+        </a:sysClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>K</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>消费税上升之规划求解法!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>消费税上升之规划求解法!$E$8:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>消费税上升之规划求解法!$G$8:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.6590836705493327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6593310038818242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65985344169192417</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66070684574865068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66198197014666049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66381573927906001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66640913183150985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67005548214781019</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67518624279016626</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68244791146800388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62985330138639117</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63683295449818156</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64198860007981851</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6457961143834412</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.64860761320903471</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65068345301556585</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65221605045842368</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65334756599443677</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65418300990361555</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65479994487958115</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65525566397929913</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65559249891639249</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.65584174559730335</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.65602656830079498</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65616415059549438</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6562672919657131</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65634559809654036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.65640637530032642</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.65645531226892739</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65649701273258099</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.65653542891484518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34FA-4713-A13A-A8C13B36533B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1572678319"/>
+        <c:axId val="1577839343"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1572678319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="43137"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="4F81BD">
+                <a:lumMod val="50000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1577839343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1577839343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.69000000000000017"/>
+          <c:min val="0.62000000000000011"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1572678319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF">
+        <a:lumMod val="95000"/>
+      </a:sysClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="window" lastClr="FFFFFF">
+          <a:lumMod val="85000"/>
+        </a:sysClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -3235,6 +4360,18 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5156,6 +6293,942 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6172,6 +8245,261 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>566811</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A159605-E45F-4D54-84CC-B1CA510F294E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="242888" y="7439025"/>
+          <a:ext cx="10039423" cy="1190634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>481075</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{998E7534-53EA-43B6-95F0-032296EE0504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="8686800"/>
+          <a:ext cx="8529700" cy="1014420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>242953</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDB13D9-163E-4FDF-9CC6-AC5EEF98D8AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="9858375"/>
+          <a:ext cx="8977378" cy="976320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>338199</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>33357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D29F2C-4B01-4FC6-8769-295869594A46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="423863" y="11106150"/>
+          <a:ext cx="8334436" cy="2671782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>454818</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>116681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>173830</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40481</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA91D08B-4FC5-4871-913F-9CC5A0950D58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="图表 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D7E309B-C2CF-4EAB-ACF4-330E0CA79D16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -7835,6 +10163,578 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride5.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride6.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD1629A-FCBD-4B3B-985C-FED7D2429096}">
   <dimension ref="A3:G40"/>
@@ -8172,7 +11072,7 @@
   <dimension ref="A4:K38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -9135,8 +12035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912F7ABB-EF7F-47FF-BA0F-4730B6A795CC}">
   <dimension ref="A4:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10199,4 +13099,979 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9E047E-EB5E-4654-BCFB-55F49B2F0FAB}">
+  <dimension ref="A4:M38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="20" max="20" width="13.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f>B10</f>
+        <v>1.2261447333572111</v>
+      </c>
+      <c r="G8">
+        <v>0.6590836705493327</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="L8">
+        <f>F9-$B$7*F8^$B$4-(1-$B$6)*F8+G8+J8</f>
+        <v>-1.9428902930940239E-16</v>
+      </c>
+      <c r="M8">
+        <f>(1+H9)*G9/(1+H8)/G8-$B$5*((1-I9)*$B$4*$B$7*F9^($B$4-1)+1-$B$6)</f>
+        <v>6.0307314697638503E-12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1.2235964917227233</v>
+      </c>
+      <c r="G9">
+        <v>0.6593310038818242</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L37" si="0">F10-$B$7*F9^$B$4-(1-$B$6)*F9+G9+J9</f>
+        <v>-1.4556966743128896E-12</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:M37" si="1">(1+H10)*G10/(1+H9)/G9-$B$5*((1-I10)*$B$4*$B$7*F10^($B$4-1)+1-$B$6)</f>
+        <v>1.769451252187082E-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <f>((1/B5+B6-1)/(B4*B7))^(1/(B4-1))</f>
+        <v>1.2261447333572111</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1.2207746942574289</v>
+      </c>
+      <c r="G10">
+        <v>0.65985344169192417</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>-6.4085126094681755E-12</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>3.8846925676239152E-11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <f>B7*B10^B4-B8-B6*B10</f>
+        <v>0.65653542891484518</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1.2174002922930083</v>
+      </c>
+      <c r="G11">
+        <v>0.66070684574865068</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>-1.6642992539672719E-11</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>7.5768724627778283E-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B7*B10^B4</f>
+        <v>1.0630716122541479</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>1.213134847523718</v>
+      </c>
+      <c r="G12">
+        <v>0.66198197014666049</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>-3.5533659348274682E-11</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>1.3842771373617779E-10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>1.2075442506373228</v>
+      </c>
+      <c r="G13">
+        <v>0.66381573927906001</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>-6.8752198378874141E-11</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>2.432791745832219E-10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>1.2000501462390549</v>
+      </c>
+      <c r="G14">
+        <v>0.66640913183150985</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>-1.2529796644678015E-10</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>4.2391423704657427E-10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>1.2261447333572111</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>1.1898616873328363</v>
+      </c>
+      <c r="G15">
+        <v>0.67005548214781019</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>-2.1938437178015135E-10</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>7.8451267704338079E-10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>0.65653542891484495</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>1.1758757252609779</v>
+      </c>
+      <c r="G16">
+        <v>0.67518624279016626</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>-3.767957890143947E-10</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>1.8168841986465623E-9</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>1.1565250445539734</v>
+      </c>
+      <c r="G17">
+        <v>0.68244791146800388</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>-6.6678948473786193E-10</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>-5.1851476445818889E-9</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>1.1295374313209166</v>
+      </c>
+      <c r="G18">
+        <v>0.62985330138639117</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>-1.3892670069903801E-9</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>7.2245920357261184E-10</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E19" s="2">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>1.1545181128761162</v>
+      </c>
+      <c r="G19">
+        <v>0.63683295449818156</v>
+      </c>
+      <c r="H19">
+        <v>0.1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>-8.4582515991193929E-10</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>1.9521384508891515E-10</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E20" s="2">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>1.1731030510906875</v>
+      </c>
+      <c r="G20">
+        <v>0.64198860007981851</v>
+      </c>
+      <c r="H20">
+        <v>0.1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>-4.8729717483375623E-10</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>7.5355277573407875E-11</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E21" s="2">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>1.1868999470560579</v>
+      </c>
+      <c r="G21">
+        <v>0.6457961143834412</v>
+      </c>
+      <c r="H21">
+        <v>0.1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>-2.7595667417834591E-10</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>3.6549430149079853E-11</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E22" s="2">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>1.197126380497312</v>
+      </c>
+      <c r="G22">
+        <v>0.64860761320903471</v>
+      </c>
+      <c r="H22">
+        <v>0.1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>-1.5484033499824079E-10</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>1.964428619771752E-11</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E23" s="2">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>1.204697710034347</v>
+      </c>
+      <c r="G23">
+        <v>0.65068345301556585</v>
+      </c>
+      <c r="H23">
+        <v>0.1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.1</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>-8.6296830792420565E-11</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>1.095545876239612E-11</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E24" s="2">
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>1.2102985557827735</v>
+      </c>
+      <c r="G24">
+        <v>0.65221605045842368</v>
+      </c>
+      <c r="H24">
+        <v>0.1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.1</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>-4.7841036687756855E-11</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>6.1690652586321448E-12</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E25" s="2">
+        <v>17</v>
+      </c>
+      <c r="F25">
+        <v>1.2144390909912148</v>
+      </c>
+      <c r="G25">
+        <v>0.65334756599443677</v>
+      </c>
+      <c r="H25">
+        <v>0.1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>-2.6413177200979021E-11</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>3.4723335318176396E-12</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E26" s="2">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>1.2174984864514684</v>
+      </c>
+      <c r="G26">
+        <v>0.65418300990361555</v>
+      </c>
+      <c r="H26">
+        <v>0.1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>-1.4538120707285884E-11</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>1.9484414082171497E-12</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E27" s="2">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>1.2197579969445143</v>
+      </c>
+      <c r="G27">
+        <v>0.65479994487958115</v>
+      </c>
+      <c r="H27">
+        <v>0.1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>-7.9852513490408228E-12</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>1.0911271886016038E-12</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E28" s="2">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>1.2214259310208693</v>
+      </c>
+      <c r="G28">
+        <v>0.65525566397929913</v>
+      </c>
+      <c r="H28">
+        <v>0.1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>-4.380468210385402E-12</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>6.1084470814876113E-13</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E29" s="2">
+        <v>21</v>
+      </c>
+      <c r="F29">
+        <v>1.2226563744423866</v>
+      </c>
+      <c r="G29">
+        <v>0.65559249891639249</v>
+      </c>
+      <c r="H29">
+        <v>0.1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.1</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>-2.4026058920156856E-12</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>3.4439118223872356E-13</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E30" s="2">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>1.2235631635668498</v>
+      </c>
+      <c r="G30">
+        <v>0.65584174559730335</v>
+      </c>
+      <c r="H30">
+        <v>0.1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.1</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>-1.3198053760987705E-12</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>1.9650947535865271E-13</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E31" s="2">
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <v>1.2242302750220708</v>
+      </c>
+      <c r="G31">
+        <v>0.65602656830079498</v>
+      </c>
+      <c r="H31">
+        <v>0.1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>-7.2727934785632442E-13</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>1.1568523916594131E-13</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E32" s="2">
+        <v>24</v>
+      </c>
+      <c r="F32">
+        <v>1.2247195253115684</v>
+      </c>
+      <c r="G32">
+        <v>0.65616415059549438</v>
+      </c>
+      <c r="H32">
+        <v>0.1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>-4.0353831387562877E-13</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>7.1498362785860081E-14</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E33" s="2">
+        <v>25</v>
+      </c>
+      <c r="F33">
+        <v>1.2250762566820681</v>
+      </c>
+      <c r="G33">
+        <v>0.6562672919657131</v>
+      </c>
+      <c r="H33">
+        <v>0.1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+      <c r="L33">
+        <f>F34-$B$7*F33^$B$4-(1-$B$6)*F33+G33+J33</f>
+        <v>-2.2701285296022888E-13</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>4.7961634663806763E-14</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E34" s="2">
+        <v>26</v>
+      </c>
+      <c r="F34">
+        <v>1.2253335161339431</v>
+      </c>
+      <c r="G34">
+        <v>0.65634559809654036</v>
+      </c>
+      <c r="H34">
+        <v>0.1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>-1.3108958363261536E-13</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>3.5527136788005009E-14</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E35" s="2">
+        <v>27</v>
+      </c>
+      <c r="F35">
+        <v>1.2255151039616388</v>
+      </c>
+      <c r="G35">
+        <v>0.65640637530032642</v>
+      </c>
+      <c r="H35">
+        <v>0.1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>-7.9131146080158032E-14</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>3.0198066269804258E-14</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E36" s="2">
+        <v>28</v>
+      </c>
+      <c r="F36">
+        <v>1.2256377682413679</v>
+      </c>
+      <c r="G36">
+        <v>0.65645531226892739</v>
+      </c>
+      <c r="H36">
+        <v>0.1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>-5.1153525859604088E-14</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>2.9976021664879227E-14</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E37" s="2">
+        <v>29</v>
+      </c>
+      <c r="F37">
+        <v>1.2257127449409797</v>
+      </c>
+      <c r="G37">
+        <v>0.65649701273258099</v>
+      </c>
+      <c r="H37">
+        <v>0.1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.1</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>-3.7275738051789631E-14</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>3.397282455352979E-14</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.4">
+      <c r="E38" s="2">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>1.225746783745892</v>
+      </c>
+      <c r="G38" s="4">
+        <f>B11</f>
+        <v>0.65653542891484518</v>
+      </c>
+      <c r="H38">
+        <v>0.1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L6:M6"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>